--- a/docs/pm/综合应用服务平台详细设计阶段-任务分工20181123.xlsx
+++ b/docs/pm/综合应用服务平台详细设计阶段-任务分工20181123.xlsx
@@ -238,12 +238,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -252,12 +252,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="Times Roman"/>
       <charset val="134"/>
@@ -286,6 +280,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -293,22 +302,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,31 +333,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,31 +349,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,15 +396,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,16 +430,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="47">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,25 +524,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,151 +644,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,6 +950,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,6 +993,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1013,6 +1013,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,186 +1042,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1220,127 +1202,121 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1761,8 +1737,8 @@
   <sheetPr/>
   <dimension ref="A1:IT35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.25" customHeight="1"/>
@@ -1792,22 +1768,22 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="37" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1824,16 +1800,16 @@
       <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F2" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
+      <c r="E2" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F2" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:10">
       <c r="A3" s="10"/>
@@ -1846,16 +1822,16 @@
       <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F3" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41"/>
+      <c r="E3" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F3" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:10">
       <c r="A4" s="10"/>
@@ -1868,16 +1844,16 @@
       <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F4" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
+      <c r="E4" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F4" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="39"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:10">
       <c r="A5" s="10"/>
@@ -1890,16 +1866,16 @@
       <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F5" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
+      <c r="E5" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F5" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:10">
       <c r="A6" s="11" t="s">
@@ -1914,16 +1890,16 @@
       <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F6" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
+      <c r="E6" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F6" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:10">
       <c r="A7" s="10"/>
@@ -1936,16 +1912,16 @@
       <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F7" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
+      <c r="E7" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F7" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:10">
       <c r="A8" s="10"/>
@@ -1958,16 +1934,16 @@
       <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F8" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="41"/>
+      <c r="E8" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F8" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:10">
       <c r="A9" s="12"/>
@@ -1980,16 +1956,16 @@
       <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F9" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
+      <c r="E9" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F9" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:10">
       <c r="A10" s="13" t="s">
@@ -2004,16 +1980,16 @@
       <c r="D10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F10" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
+      <c r="E10" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F10" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:10">
       <c r="A11" s="14"/>
@@ -2026,16 +2002,16 @@
       <c r="D11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F11" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
+      <c r="E11" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F11" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="39"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:10">
       <c r="A12" s="15"/>
@@ -2048,16 +2024,16 @@
       <c r="D12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F12" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
+      <c r="E12" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F12" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:10">
       <c r="A13" s="15"/>
@@ -2070,16 +2046,16 @@
       <c r="D13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F13" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
+      <c r="E13" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F13" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:10">
       <c r="A14" s="16" t="s">
@@ -2094,19 +2070,19 @@
       <c r="D14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F14" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41"/>
+      <c r="E14" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F14" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:10">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
@@ -2116,19 +2092,19 @@
       <c r="D15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F15" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
+      <c r="E15" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F15" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:10">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2140,19 +2116,19 @@
       <c r="D16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F16" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
+      <c r="E16" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F16" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:10">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -2164,19 +2140,19 @@
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F17" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
+      <c r="E17" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F17" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:10">
-      <c r="A18" s="20"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="7" t="s">
         <v>38</v>
       </c>
@@ -2186,19 +2162,19 @@
       <c r="D18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F18" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
+      <c r="E18" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F18" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:10">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -2210,19 +2186,19 @@
       <c r="D19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F19" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="41"/>
+      <c r="E19" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F19" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:10">
-      <c r="A20" s="22"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="7" t="s">
         <v>42</v>
       </c>
@@ -2232,19 +2208,19 @@
       <c r="D20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F20" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
+      <c r="E20" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F20" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:10">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2256,19 +2232,19 @@
       <c r="D21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F21" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="41"/>
+      <c r="E21" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F21" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:10">
-      <c r="A22" s="24"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="7" t="s">
         <v>13</v>
       </c>
@@ -2278,19 +2254,19 @@
       <c r="D22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F22" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
+      <c r="E22" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F22" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:10">
-      <c r="A23" s="24"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="7" t="s">
         <v>14</v>
       </c>
@@ -2300,19 +2276,19 @@
       <c r="D23" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F23" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="E23" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F23" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:10">
-      <c r="A24" s="24"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="7" t="s">
         <v>18</v>
       </c>
@@ -2322,19 +2298,19 @@
       <c r="D24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F24" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="41"/>
+      <c r="E24" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F24" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:10">
-      <c r="A25" s="24"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="7" t="s">
         <v>20</v>
       </c>
@@ -2344,19 +2320,19 @@
       <c r="D25" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F25" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41"/>
+      <c r="E25" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F25" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:10">
-      <c r="A26" s="24"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="7" t="s">
         <v>21</v>
       </c>
@@ -2366,19 +2342,19 @@
       <c r="D26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F26" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="41"/>
+      <c r="E26" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F26" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:10">
-      <c r="A27" s="24"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="7" t="s">
         <v>22</v>
       </c>
@@ -2388,19 +2364,19 @@
       <c r="D27" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F27" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="41"/>
+      <c r="E27" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F27" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:10">
-      <c r="A28" s="24"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="7" t="s">
         <v>25</v>
       </c>
@@ -2410,19 +2386,19 @@
       <c r="D28" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F28" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="41"/>
+      <c r="E28" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F28" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:10">
-      <c r="A29" s="24"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
@@ -2432,19 +2408,19 @@
       <c r="D29" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F29" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="41"/>
+      <c r="E29" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F29" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:10">
-      <c r="A30" s="24"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
@@ -2454,19 +2430,19 @@
       <c r="D30" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F30" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
+      <c r="E30" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F30" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G30" s="33"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:10">
-      <c r="A31" s="24"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="7" t="s">
         <v>28</v>
       </c>
@@ -2476,19 +2452,19 @@
       <c r="D31" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F31" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="41"/>
+      <c r="E31" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F31" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="39"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:10">
-      <c r="A32" s="24"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="7" t="s">
         <v>29</v>
       </c>
@@ -2498,56 +2474,56 @@
       <c r="D32" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F32" s="35">
-        <v>43433</v>
-      </c>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="E32" s="33">
+        <v>43427</v>
+      </c>
+      <c r="F32" s="33">
+        <v>43433</v>
+      </c>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="39"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:10">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="37">
-        <v>43427</v>
-      </c>
-      <c r="F33" s="37">
-        <v>43469</v>
-      </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="43"/>
+      <c r="E33" s="35">
+        <v>43427</v>
+      </c>
+      <c r="F33" s="35">
+        <v>43438</v>
+      </c>
+      <c r="G33" s="35"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="41"/>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:10">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
     </row>
     <row r="35" customHeight="1" spans="254:254">
       <c r="IT35"/>

--- a/docs/pm/综合应用服务平台详细设计阶段-任务分工20181123.xlsx
+++ b/docs/pm/综合应用服务平台详细设计阶段-任务分工20181123.xlsx
@@ -239,8 +239,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -281,17 +281,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,21 +302,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -335,17 +312,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,6 +332,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -372,16 +349,46 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,10 +402,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,21 +417,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -524,6 +524,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -536,91 +548,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,67 +692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,24 +945,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -978,6 +960,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -989,15 +980,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,6 +1010,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1047,148 +1047,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1735,10 +1735,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:IT35"/>
+  <dimension ref="A1:IT34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.25" customHeight="1"/>
@@ -2400,7 +2400,7 @@
     <row r="29" ht="30" customHeight="1" spans="1:10">
       <c r="A29" s="22"/>
       <c r="B29" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>46</v>
@@ -2422,7 +2422,7 @@
     <row r="30" ht="30" customHeight="1" spans="1:10">
       <c r="A30" s="22"/>
       <c r="B30" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>46</v>
@@ -2444,7 +2444,7 @@
     <row r="31" ht="30" customHeight="1" spans="1:10">
       <c r="A31" s="22"/>
       <c r="B31" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>46</v>
@@ -2464,80 +2464,58 @@
       <c r="J31" s="39"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:10">
-      <c r="A32" s="22"/>
-      <c r="B32" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="33">
-        <v>43427</v>
-      </c>
-      <c r="F32" s="33">
-        <v>43433</v>
-      </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="39"/>
+      <c r="A32" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="35">
+        <v>43427</v>
+      </c>
+      <c r="F32" s="35">
+        <v>43438</v>
+      </c>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:10">
-      <c r="A33" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="35">
-        <v>43427</v>
-      </c>
-      <c r="F33" s="35">
-        <v>43438</v>
-      </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="41"/>
-    </row>
-    <row r="34" ht="30" customHeight="1" spans="1:10">
-      <c r="A34" s="27" t="s">
+      <c r="A33" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B33" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-    </row>
-    <row r="35" customHeight="1" spans="254:254">
-      <c r="IT35"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+    </row>
+    <row r="34" customHeight="1" spans="254:254">
+      <c r="IT34"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B33:J33"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="A21:A31"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/docs/pm/综合应用服务平台详细设计阶段-任务分工20181123.xlsx
+++ b/docs/pm/综合应用服务平台详细设计阶段-任务分工20181123.xlsx
@@ -281,30 +281,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,16 +309,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,16 +332,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,51 +364,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,6 +392,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="45">
     <fill>
@@ -530,25 +530,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,139 +626,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,17 +945,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,6 +959,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,17 +1002,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1010,35 +1028,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,148 +1047,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1737,8 +1737,8 @@
   <sheetPr/>
   <dimension ref="A1:IT34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.25" customHeight="1"/>
